--- a/InputData/fuels/BFCpUEbS/BAU Fuel Cost per Unit Energy by Sector.xlsx
+++ b/InputData/fuels/BFCpUEbS/BAU Fuel Cost per Unit Energy by Sector.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\fuels\BFCpUEbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\fuels\BFCpUEbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23AC1E1-F1CD-4B43-B049-A64E627D8E12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="39" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -58,21 +57,20 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId43"/>
-    <externalReference r:id="rId44"/>
   </externalReferences>
   <definedNames>
     <definedName name="gal_per_barrel">[1]About!$A$40</definedName>
-    <definedName name="lignite_multiplier" localSheetId="37">'[2]Hard Coal and Lig Multipliers'!$N$16</definedName>
-    <definedName name="lignite_multiplier" localSheetId="38">'[2]Hard Coal and Lig Multipliers'!$N$16</definedName>
-    <definedName name="lignite_multiplier" localSheetId="41">'[2]Hard Coal and Lig Multipliers'!$N$16</definedName>
-    <definedName name="lignite_multiplier" localSheetId="39">'[2]Hard Coal and Lig Multipliers'!$N$16</definedName>
-    <definedName name="lignite_multiplier" localSheetId="40">'[2]Hard Coal and Lig Multipliers'!$N$16</definedName>
+    <definedName name="lignite_multiplier" localSheetId="37">#REF!</definedName>
+    <definedName name="lignite_multiplier" localSheetId="38">#REF!</definedName>
+    <definedName name="lignite_multiplier" localSheetId="41">#REF!</definedName>
+    <definedName name="lignite_multiplier" localSheetId="39">#REF!</definedName>
+    <definedName name="lignite_multiplier" localSheetId="40">#REF!</definedName>
     <definedName name="lignite_multiplier">#REF!</definedName>
-    <definedName name="nonlignite_multiplier" localSheetId="37">'[2]Hard Coal and Lig Multipliers'!$N$17</definedName>
-    <definedName name="nonlignite_multiplier" localSheetId="38">'[2]Hard Coal and Lig Multipliers'!$N$17</definedName>
-    <definedName name="nonlignite_multiplier" localSheetId="41">'[2]Hard Coal and Lig Multipliers'!$N$17</definedName>
-    <definedName name="nonlignite_multiplier" localSheetId="39">'[2]Hard Coal and Lig Multipliers'!$N$17</definedName>
-    <definedName name="nonlignite_multiplier" localSheetId="40">'[2]Hard Coal and Lig Multipliers'!$N$17</definedName>
+    <definedName name="nonlignite_multiplier" localSheetId="37">#REF!</definedName>
+    <definedName name="nonlignite_multiplier" localSheetId="38">#REF!</definedName>
+    <definedName name="nonlignite_multiplier" localSheetId="41">#REF!</definedName>
+    <definedName name="nonlignite_multiplier" localSheetId="39">#REF!</definedName>
+    <definedName name="nonlignite_multiplier" localSheetId="40">#REF!</definedName>
     <definedName name="nonlignite_multiplier">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2671,7 +2669,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -3766,29 +3764,29 @@
     </xf>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 2" xfId="22" xr:uid="{36692F8E-851E-4C98-886F-F460F1948759}"/>
-    <cellStyle name="Comma 2 2" xfId="21" xr:uid="{FD4F4B8B-DB2E-4271-BB8F-E2D8CECC713C}"/>
+    <cellStyle name="Body: normal cell" xfId="2"/>
+    <cellStyle name="Body: normal cell 2" xfId="15"/>
+    <cellStyle name="Comma 2" xfId="22"/>
+    <cellStyle name="Comma 2 2" xfId="21"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Header: bottom row" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Header: top rows" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="8"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="18"/>
+    <cellStyle name="Footnotes: all except top row" xfId="11"/>
+    <cellStyle name="Footnotes: top row" xfId="6"/>
+    <cellStyle name="Footnotes: top row 2" xfId="14"/>
+    <cellStyle name="Header: bottom row" xfId="1"/>
+    <cellStyle name="Header: bottom row 2" xfId="17"/>
+    <cellStyle name="Header: top rows" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Parent row 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 2" xfId="13"/>
+    <cellStyle name="Parent row" xfId="5"/>
+    <cellStyle name="Parent row 2" xfId="16"/>
     <cellStyle name="Percent" xfId="20" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="7" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Table title" xfId="12" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Table title 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Section Break" xfId="7"/>
+    <cellStyle name="Section Break: parent row" xfId="4"/>
+    <cellStyle name="Table title" xfId="12"/>
+    <cellStyle name="Table title 2" xfId="19"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3817,7 +3815,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4204,86 +4202,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="AEO Table 2"/>
-      <sheetName val="AEO Table 3"/>
-      <sheetName val="AEO Table 12"/>
-      <sheetName val="Natural Gas and Coal Adjustment"/>
-      <sheetName val="Hard Coal and Lig Multipliers"/>
-      <sheetName val="Hydrogen"/>
-      <sheetName val="Other Fuels"/>
-      <sheetName val="BFCpUEbS-electricity"/>
-      <sheetName val="BFCpUEbS-coal"/>
-      <sheetName val="BFCpUEbS-natural-gas"/>
-      <sheetName val="BFCpUEbS-nuclear"/>
-      <sheetName val="BFCpUEbS-hydro"/>
-      <sheetName val="BFCpUEbS-wind"/>
-      <sheetName val="BFCpUEbS-solar"/>
-      <sheetName val="BFCpUEbS-biomass"/>
-      <sheetName val="BFCpUEbS-petroleum-gasoline"/>
-      <sheetName val="BFCpUEbS-petroleum-diesel"/>
-      <sheetName val="BFCpUEbS-biofuel-gasoline"/>
-      <sheetName val="BFCpUEbS-biofuel-diesel"/>
-      <sheetName val="BFCpUEbS-jet-fuel-or-kerosene"/>
-      <sheetName val="BFCpUEbS-heat"/>
-      <sheetName val="BFCpUEbS-lignite"/>
-      <sheetName val="BFCpUEbS-geothermal"/>
-      <sheetName val="BFCpUEbS-crude-oil"/>
-      <sheetName val="BFCpUEbS-heavy-fuel-oil"/>
-      <sheetName val="BFCpUEbS-lpg-propane-or-butane"/>
-      <sheetName val="BFCpUEbS-municipal-solid-waste"/>
-      <sheetName val="BFCpUEbS-hydrogen"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="16">
-          <cell r="N16">
-            <v>0.92062879123815489</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>1.0036394752510358</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="eia_report">
   <a:themeElements>
@@ -4510,28 +4428,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D53" sqref="D53:D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="14" customWidth="1"/>
-    <col min="2" max="2" width="91.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="78.5703125" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
+    <col min="2" max="2" width="91.73046875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="4.86328125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="78.59765625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4539,71 +4457,71 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="62"/>
       <c r="B4" s="62"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="17" t="s">
         <v>462</v>
       </c>
@@ -4611,7 +4529,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="14" t="s">
         <v>293</v>
       </c>
@@ -4619,7 +4537,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>2018</v>
       </c>
@@ -4627,7 +4545,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="14" t="s">
         <v>292</v>
       </c>
@@ -4635,7 +4553,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>486</v>
       </c>
@@ -4643,7 +4561,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="14" t="s">
         <v>487</v>
       </c>
@@ -4651,7 +4569,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="17" t="s">
         <v>570</v>
       </c>
@@ -4659,7 +4577,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="14" t="s">
         <v>220</v>
       </c>
@@ -4667,7 +4585,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <v>2018</v>
       </c>
@@ -4675,7 +4593,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="14" t="s">
         <v>490</v>
       </c>
@@ -4683,7 +4601,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="4" t="s">
         <v>488</v>
       </c>
@@ -4691,7 +4609,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="14" t="s">
         <v>552</v>
       </c>
@@ -4699,7 +4617,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="17" t="s">
         <v>571</v>
       </c>
@@ -4707,7 +4625,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" s="14" t="s">
         <v>572</v>
       </c>
@@ -4715,7 +4633,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <v>2018</v>
       </c>
@@ -4723,7 +4641,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" s="14" t="s">
         <v>573</v>
       </c>
@@ -4731,7 +4649,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" s="4" t="s">
         <v>569</v>
       </c>
@@ -4739,7 +4657,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" s="17" t="s">
         <v>227</v>
       </c>
@@ -4747,7 +4665,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" s="14" t="s">
         <v>228</v>
       </c>
@@ -4755,7 +4673,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <v>2017</v>
       </c>
@@ -4763,7 +4681,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" s="14" t="s">
         <v>653</v>
       </c>
@@ -4771,47 +4689,47 @@
         <v>588</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" s="13" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B44" s="14" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" s="14" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" s="17" t="s">
         <v>235</v>
       </c>
@@ -4819,7 +4737,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B54" s="14" t="s">
         <v>220</v>
       </c>
@@ -4827,7 +4745,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B55" s="53" t="s">
         <v>550</v>
       </c>
@@ -4835,7 +4753,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B56" s="14" t="s">
         <v>236</v>
       </c>
@@ -4843,7 +4761,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B57" s="4" t="s">
         <v>549</v>
       </c>
@@ -4851,7 +4769,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B58" s="14" t="s">
         <v>551</v>
       </c>
@@ -4859,67 +4777,67 @@
         <v>845</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" s="17" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B61" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B62" s="53" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B63" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B64" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" s="14" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" s="17" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B68" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B70" s="14" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B71" s="13" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72" s="14" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B74" s="17" t="s">
         <v>662</v>
       </c>
@@ -4927,7 +4845,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75" s="14" t="s">
         <v>659</v>
       </c>
@@ -4935,7 +4853,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B76" s="1">
         <v>2015</v>
       </c>
@@ -4943,7 +4861,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B77" s="14" t="s">
         <v>660</v>
       </c>
@@ -4951,7 +4869,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B78" s="13" t="s">
         <v>657</v>
       </c>
@@ -4959,7 +4877,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B79" s="14" t="s">
         <v>658</v>
       </c>
@@ -4967,392 +4885,392 @@
         <v>658</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" s="63" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="17" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" s="17" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" s="17" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B96" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B97" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B98" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B99" s="47" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B100" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B102" s="63" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B104" s="18" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B105" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B107" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B108" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B109" s="14" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" s="16" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" s="16" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" s="14" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" s="14" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" s="14" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" s="14" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" s="14" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" s="16" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" s="14" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" s="14" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" s="14" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" s="14" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" s="14" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" s="140" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" s="14" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" s="14" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" s="14" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" s="14" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" s="14" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" s="14" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" s="14" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" s="14" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" s="14" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" s="14" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" s="14" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" s="14" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" s="14" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" s="14" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" s="14" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" s="14" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" s="14" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" s="14" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" s="14" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" s="14" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" s="16" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" s="14" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" s="14" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" s="139" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" s="139" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" s="139" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" s="139" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" s="139" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" s="139" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" s="139" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" s="139" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" s="139" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" s="139" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" s="139" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" s="14" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" s="14" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" s="14" t="s">
         <v>796</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B86" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B92" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B108" r:id="rId6" xr:uid="{419532AB-635F-40AB-AF13-7918D27C24D3}"/>
-    <hyperlink ref="B30" r:id="rId7" xr:uid="{D4B20954-AE84-462C-B92A-02ED1CC3D4B6}"/>
-    <hyperlink ref="B71" r:id="rId8" xr:uid="{AA144C3F-DC3D-430C-90DD-76B0BCCFA925}"/>
-    <hyperlink ref="B23" r:id="rId9" xr:uid="{6893AE8E-64EA-4F6E-BDE7-A0F98E68D7A2}"/>
+    <hyperlink ref="B86" r:id="rId1"/>
+    <hyperlink ref="B43" r:id="rId2"/>
+    <hyperlink ref="B92" r:id="rId3"/>
+    <hyperlink ref="B16" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId6"/>
+    <hyperlink ref="B30" r:id="rId7"/>
+    <hyperlink ref="B71" r:id="rId8"/>
+    <hyperlink ref="B23" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
@@ -5360,20 +5278,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -5384,7 +5302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -5395,7 +5313,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" s="7">
         <f>B2/10^6</f>
         <v>7.4000000000000001E-7</v>
@@ -5410,28 +5328,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -5439,7 +5357,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -5447,7 +5365,7 @@
         <v>2873.22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -5455,7 +5373,7 @@
         <v>3270.39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -5463,7 +5381,7 @@
         <v>3344.85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -5471,7 +5389,7 @@
         <v>3420.56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5479,7 +5397,7 @@
         <v>2854.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -5487,7 +5405,7 @@
         <v>2826.05</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -5495,7 +5413,7 @@
         <v>2922.86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -5503,7 +5421,7 @@
         <v>3073.05</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5515,7 +5433,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="7">
         <f>B12/'Conversion Factors'!$B$35</f>
         <v>2.4255098175079799E-4</v>
@@ -5524,7 +5442,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="7">
         <f>B13/'Conversion Factors'!$C$12</f>
         <v>1.7648974861615837E-4</v>
@@ -5533,7 +5451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="7">
         <f>B14/'Conversion Factors'!$B$17</f>
         <v>3.2223799272623401E-6</v>
@@ -5542,12 +5460,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="67" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="67" t="s">
         <v>559</v>
       </c>
@@ -5558,33 +5476,33 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>545</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -5595,7 +5513,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="7">
         <f>B3/'Conversion Factors'!B46</f>
@@ -5605,7 +5523,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="7">
         <f>B4/'Conversion Factors'!$C$12</f>
         <v>1.8037043957352993E-3</v>
@@ -5614,7 +5532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="7">
         <f>B5/'Conversion Factors'!$B$17</f>
         <v>3.2932342445413534E-5</v>
@@ -5623,21 +5541,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>545</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>230</v>
       </c>
@@ -5648,7 +5566,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="7">
         <f>B11/'Conversion Factors'!B51</f>
@@ -5658,7 +5576,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="7">
         <f>B12/'Conversion Factors'!$C$12</f>
@@ -5668,7 +5586,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="7">
         <f>B13/'Conversion Factors'!$B$17</f>
@@ -5678,17 +5596,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F16" s="67" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F17" s="67" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="9"/>
     </row>
   </sheetData>
@@ -5698,20 +5616,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747B8AF0-EABE-491D-93E5-4903E5A05AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>824</v>
       </c>
@@ -5719,7 +5637,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E2" s="143" t="s">
         <v>10</v>
       </c>
@@ -5727,7 +5645,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>825</v>
       </c>
@@ -5744,7 +5662,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>826</v>
       </c>
@@ -5762,7 +5680,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>827</v>
       </c>
@@ -5781,7 +5699,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="7">
         <f>B5/'Conversion Factors'!B77</f>
         <v>2.2565147637697378E-3</v>
@@ -5797,7 +5715,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="7">
         <f>B6/'Conversion Factors'!C13</f>
         <v>1.5251067792358827E-3</v>
@@ -5813,7 +5731,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>839</v>
       </c>
@@ -5832,7 +5750,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E9" s="142">
         <f>E8+1</f>
         <v>2019</v>
@@ -5844,7 +5762,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>840</v>
       </c>
@@ -5856,7 +5774,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="7">
         <f>B10/'Conversion Factors'!B17</f>
         <v>3.2622054795122053E-5</v>
@@ -5865,22 +5783,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="23"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="148" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>841</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{39D4A4FD-CE36-43DB-AA5B-7FE92B3EC4D1}"/>
+    <hyperlink ref="A15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5888,21 +5806,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28" style="9" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="9" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="9"/>
+    <col min="2" max="2" width="18.265625" style="9" customWidth="1"/>
+    <col min="3" max="5" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="49" t="s">
         <v>21</v>
       </c>
@@ -5911,12 +5829,12 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="64" t="s">
         <v>22</v>
       </c>
@@ -5933,7 +5851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="79" t="s">
         <v>27</v>
       </c>
@@ -5942,7 +5860,7 @@
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="64" t="s">
         <v>28</v>
       </c>
@@ -5959,7 +5877,7 @@
         <v>20802</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="64" t="s">
         <v>29</v>
       </c>
@@ -5974,7 +5892,7 @@
         <v>-1668</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="64" t="s">
         <v>30</v>
       </c>
@@ -5989,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="64" t="s">
         <v>31</v>
       </c>
@@ -6007,7 +5925,7 @@
         <v>19134</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="64" t="s">
         <v>32</v>
       </c>
@@ -6022,7 +5940,7 @@
         <v>-6888</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="64" t="s">
         <v>33</v>
       </c>
@@ -6040,7 +5958,7 @@
         <v>12246</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="64" t="s">
         <v>541</v>
       </c>
@@ -6055,7 +5973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="64" t="s">
         <v>542</v>
       </c>
@@ -6076,7 +5994,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65" t="s">
         <v>33</v>
       </c>
@@ -6097,7 +6015,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="64" t="s">
         <v>34</v>
       </c>
@@ -6115,7 +6033,7 @@
         <v>12858.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="64" t="s">
         <v>35</v>
       </c>
@@ -6133,7 +6051,7 @@
         <v>12858.3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="64" t="s">
         <v>36</v>
       </c>
@@ -6148,7 +6066,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="64" t="s">
         <v>37</v>
       </c>
@@ -6163,7 +6081,7 @@
         <v>119.17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="64" t="s">
         <v>38</v>
       </c>
@@ -6178,7 +6096,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="64" t="s">
         <v>39</v>
       </c>
@@ -6193,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="64" t="s">
         <v>40</v>
       </c>
@@ -6211,7 +6129,7 @@
         <v>13155.97</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="64" t="s">
         <v>41</v>
       </c>
@@ -6226,7 +6144,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="64" t="s">
         <v>39</v>
       </c>
@@ -6241,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="64" t="s">
         <v>42</v>
       </c>
@@ -6256,7 +6174,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="64" t="s">
         <v>43</v>
       </c>
@@ -6271,7 +6189,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="82" t="s">
         <v>44</v>
       </c>
@@ -6289,7 +6207,7 @@
         <v>13573.97</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>84</v>
       </c>
@@ -6301,7 +6219,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B28" s="7">
         <f>B27/'Conversion Factors'!$B$39</f>
         <v>5.9661777488639314E-4</v>
@@ -6310,7 +6228,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B29" s="7">
         <f>B28/'Conversion Factors'!$C$12</f>
         <v>4.3412284027700027E-4</v>
@@ -6319,7 +6237,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B30" s="7">
         <f>B29/'Conversion Factors'!$B$17</f>
         <v>7.9262888493153228E-6</v>
@@ -6328,12 +6246,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="67" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="67" t="s">
         <v>539</v>
       </c>
@@ -6348,20 +6266,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A1" s="85" t="s">
         <v>574</v>
       </c>
@@ -6370,7 +6288,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>575</v>
       </c>
@@ -6379,7 +6297,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>576</v>
       </c>
@@ -6396,7 +6314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="86">
         <v>43435</v>
       </c>
@@ -6413,7 +6331,7 @@
         <v>69216.61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="86">
         <v>43405</v>
       </c>
@@ -6430,7 +6348,7 @@
         <v>77521.63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="86">
         <v>43384</v>
       </c>
@@ -6447,7 +6365,7 @@
         <v>73534</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="86">
         <v>43374</v>
       </c>
@@ -6464,7 +6382,7 @@
         <v>75521</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="86">
         <v>43344</v>
       </c>
@@ -6481,7 +6399,7 @@
         <v>70316</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="88">
         <v>43313</v>
       </c>
@@ -6498,7 +6416,7 @@
         <v>69948</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="86">
         <v>43282</v>
       </c>
@@ -6515,7 +6433,7 @@
         <v>68810</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="86">
         <v>43252</v>
       </c>
@@ -6532,7 +6450,7 @@
         <v>70751</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="86">
         <v>43221</v>
       </c>
@@ -6549,7 +6467,7 @@
         <v>65898</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="86">
         <v>43191</v>
       </c>
@@ -6566,7 +6484,7 @@
         <v>64615</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="86">
         <v>43160</v>
       </c>
@@ -6583,7 +6501,7 @@
         <v>64427</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="86">
         <v>43147</v>
       </c>
@@ -6600,7 +6518,7 @@
         <v>64236</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="86">
         <v>43132</v>
       </c>
@@ -6617,7 +6535,7 @@
         <v>64236</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="86">
         <v>43101</v>
       </c>
@@ -6634,7 +6552,7 @@
         <v>60640</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>577</v>
       </c>
@@ -6655,7 +6573,7 @@
         <v>68547.874285714279</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>578</v>
       </c>
@@ -6667,14 +6585,14 @@
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
     </row>
-    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10"/>
       <c r="B20" s="91"/>
       <c r="C20" s="89"/>
       <c r="D20" s="89"/>
       <c r="E20" s="89"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>84</v>
       </c>
@@ -6688,7 +6606,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B22" s="7">
         <f>B21/'Conversion Factors'!$B$39</f>
         <v>1.9177434478357895E-3</v>
@@ -6697,7 +6615,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="7">
         <f>B22/'Conversion Factors'!$C$12</f>
         <v>1.3954264648846748E-3</v>
@@ -6706,7 +6624,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="7">
         <f>B23/'Conversion Factors'!$B$17</f>
         <v>2.547793435977131E-5</v>
@@ -6715,17 +6633,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="67" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="67" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="67" t="s">
         <v>581</v>
       </c>
@@ -6737,16 +6655,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B0095-32A9-44FA-95D2-68F57CBFB685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6754,7 +6672,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>631</v>
       </c>
@@ -6765,17 +6683,17 @@
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="67" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="67" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="9">
         <f>B5</f>
         <v>56.43</v>
@@ -6784,7 +6702,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="7">
         <f>B8/'Conversion Factors'!$B$70</f>
         <v>9.7293103448275863E-6</v>
@@ -6793,7 +6711,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="7">
         <f>B9*'Conversion Factors'!$F$12</f>
         <v>8.8957746271921723E-6</v>
@@ -6809,19 +6727,19 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B9153-B733-44A9-9E13-A0D887A5D344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -6832,7 +6750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>655</v>
       </c>
@@ -6843,7 +6761,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <f>B2/10^6</f>
@@ -6859,16 +6777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061EC586-9484-49BF-99F4-4AAB79B02DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -6876,7 +6794,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -6887,7 +6805,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3" s="7">
         <f>B2/'Conversion Factors'!$B$35</f>
         <v>1.3630283946398765E-4</v>
@@ -6896,7 +6814,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="7">
         <f>B3/'Conversion Factors'!$C$9</f>
         <v>1.1097212192595004E-4</v>
@@ -6907,7 +6825,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="7">
         <f>B4/'Conversion Factors'!$B$17</f>
         <v>2.0261479263456279E-6</v>
@@ -6916,19 +6834,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="7"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" t="s">
         <v>666</v>
       </c>
@@ -6941,7 +6859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
@@ -6951,13 +6869,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="6" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.86328125" customWidth="1"/>
+    <col min="2" max="6" width="25.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="50" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="51" t="s">
         <v>79</v>
       </c>
@@ -6974,7 +6892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -6998,7 +6916,7 @@
         <v>2.5071807112885997E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7020,7 +6938,7 @@
         <v>1.5777795303714415E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -7043,7 +6961,7 @@
         <v>2.8695010385579147E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -7064,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -7088,7 +7006,7 @@
         <v>3.2223799272623401E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -7109,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -7134,7 +7052,7 @@
         <v>2.6256415630977488E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -7155,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7180,7 +7098,7 @@
         <v>2.6256415630977488E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>671</v>
       </c>
@@ -7201,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -7221,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -7243,7 +7161,7 @@
         <v>2.0139247907144217E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>561</v>
       </c>
@@ -7265,7 +7183,7 @@
         <v>8.8957746271921723E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>562</v>
       </c>
@@ -7287,7 +7205,7 @@
         <v>1.7309999999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>563</v>
       </c>
@@ -7310,7 +7228,7 @@
         <v>1.3668976745037843E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>564</v>
       </c>
@@ -7332,25 +7250,25 @@
         <v>2.0261479263456279E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="67"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="67" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="67" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E44" s="67" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E45" s="67" t="s">
         <v>568</v>
       </c>
@@ -7363,7 +7281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
@@ -7373,15 +7291,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>76</v>
       </c>
@@ -7400,7 +7318,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -7412,7 +7330,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
@@ -7429,7 +7347,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -7446,7 +7364,7 @@
         <v>1.0529130131709286</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -7463,7 +7381,7 @@
         <v>1.0206944993976144</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -7480,7 +7398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -7497,7 +7415,7 @@
         <v>0.98556385942470071</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -7514,7 +7432,7 @@
         <v>0.96983137334414704</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -7531,7 +7449,7 @@
         <v>0.9686815713640794</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -7548,7 +7466,7 @@
         <v>0.95661376543184151</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -7565,7 +7483,7 @@
         <v>0.93665959530026111</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -7583,7 +7501,7 @@
         <v>0.9143273584567535</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -7595,7 +7513,7 @@
         <v>1.4795782134679836</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>75</v>
       </c>
@@ -7603,7 +7521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>2010</v>
       </c>
@@ -7611,7 +7529,7 @@
         <v>44.81</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>2011</v>
       </c>
@@ -7619,7 +7537,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>2012</v>
       </c>
@@ -7627,7 +7545,7 @@
         <v>54.77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>2013</v>
       </c>
@@ -7635,7 +7553,7 @@
         <v>61.89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>2014</v>
       </c>
@@ -7643,7 +7561,7 @@
         <v>63.33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
         <v>2015</v>
       </c>
@@ -7651,7 +7569,7 @@
         <v>66.319999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>2016</v>
       </c>
@@ -7659,7 +7577,7 @@
         <v>67.95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>2017</v>
       </c>
@@ -7667,7 +7585,7 @@
         <v>63.92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>2018</v>
       </c>
@@ -7675,14 +7593,14 @@
         <v>68.66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>234</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>217</v>
       </c>
@@ -7690,7 +7608,7 @@
         <v>158.9873</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>63</v>
       </c>
@@ -7698,7 +7616,7 @@
         <v>3.9656699999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="59" t="s">
         <v>295</v>
       </c>
@@ -7706,14 +7624,14 @@
         <v>3412.14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
         <v>59</v>
       </c>
@@ -7725,7 +7643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>61</v>
       </c>
@@ -7737,7 +7655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>62</v>
       </c>
@@ -7749,7 +7667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="9"/>
       <c r="B33" s="22">
         <v>3.9656699999999998</v>
@@ -7758,7 +7676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="9"/>
       <c r="B34" s="24">
         <f>B32*B33</f>
@@ -7768,7 +7686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B35" s="7">
         <f>B34*1000</f>
         <v>12670315.649999999</v>
@@ -7777,14 +7695,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>224</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B38">
         <f>'AEO Table 73'!F30*10^6</f>
         <v>5670000</v>
@@ -7793,7 +7711,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B39" s="24">
         <f>B38/B25</f>
         <v>35663.225930624649</v>
@@ -7802,14 +7720,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>231</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>10700</v>
       </c>
@@ -7817,7 +7735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>8.5299999999999994</v>
       </c>
@@ -7825,7 +7743,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B44" s="7">
         <f>B42*1000/B43</f>
         <v>1254396.248534584</v>
@@ -7834,7 +7752,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B45" s="7">
         <f>B44*B26</f>
         <v>4974521.5709261429</v>
@@ -7843,7 +7761,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B46" s="7">
         <f>B45/B25</f>
         <v>31288.798356385338</v>
@@ -7852,14 +7770,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>241</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="9"/>
       <c r="B49" s="9">
         <f>'AEO Table 73'!F26</f>
@@ -7869,7 +7787,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="9"/>
       <c r="B50" s="9">
         <f>B49/B25</f>
@@ -7879,7 +7797,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="9"/>
       <c r="B51" s="7">
         <f>B50*10^6</f>
@@ -7889,19 +7807,19 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="9"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>247</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="21"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>14.2</v>
       </c>
@@ -7909,7 +7827,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>11300</v>
       </c>
@@ -7917,7 +7835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56">
         <f>B54*B55</f>
         <v>160460</v>
@@ -7926,7 +7844,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B57" s="7">
         <f>B56*B26</f>
         <v>636331.40819999995</v>
@@ -7935,14 +7853,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>270</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>36</v>
       </c>
@@ -7950,7 +7868,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61">
         <f>B60*10^6</f>
         <v>36000000</v>
@@ -7959,14 +7877,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="20" t="s">
         <v>274</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>6500</v>
       </c>
@@ -7974,7 +7892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B65">
         <f>B26*B64</f>
         <v>25776.855</v>
@@ -7983,7 +7901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B66">
         <f>B65*1000</f>
         <v>25776855</v>
@@ -7992,14 +7910,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="20" t="s">
         <v>633</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="9"/>
       <c r="B69" s="9">
         <v>5.8</v>
@@ -8008,7 +7926,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="9"/>
       <c r="B70" s="9">
         <f>B69*10^6</f>
@@ -8018,14 +7936,14 @@
         <v>635</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="20" t="s">
         <v>832</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="9" t="s">
         <v>835</v>
       </c>
@@ -8039,7 +7957,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="9" t="s">
         <v>836</v>
       </c>
@@ -8050,7 +7968,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>827</v>
       </c>
@@ -8062,7 +7980,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>3.7854100000000002</v>
       </c>
@@ -8070,7 +7988,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B77" s="24">
         <f>B75/B76</f>
         <v>21247.36818468805</v>
@@ -8085,21 +8003,21 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EB1583-B6E7-47BE-8C1E-816AD387A329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK124"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="20.86328125" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="31" t="s">
         <v>672</v>
       </c>
@@ -8206,8 +8124,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="135" t="s">
         <v>86</v>
       </c>
@@ -8218,7 +8136,7 @@
       <c r="F3" s="135"/>
       <c r="G3" s="135"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="135" t="s">
         <v>88</v>
       </c>
@@ -8231,7 +8149,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="135" t="s">
         <v>91</v>
       </c>
@@ -8242,7 +8160,7 @@
       <c r="F5" s="135"/>
       <c r="G5" s="135"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="135" t="s">
         <v>93</v>
       </c>
@@ -8253,7 +8171,7 @@
       <c r="F6" s="135"/>
       <c r="G6" s="135"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="136" t="s">
         <v>677</v>
       </c>
@@ -8261,12 +8179,12 @@
         <v>678</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="31" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
         <v>98</v>
       </c>
@@ -8376,7 +8294,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="32" t="s">
         <v>681</v>
       </c>
@@ -8486,13 +8404,13 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="37" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="136" t="s">
         <v>683</v>
       </c>
@@ -8605,7 +8523,7 @@
         <v>1.1684999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="136" t="s">
         <v>685</v>
       </c>
@@ -8718,7 +8636,7 @@
         <v>1.3310000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="136" t="s">
         <v>687</v>
       </c>
@@ -8831,7 +8749,7 @@
         <v>1.4489999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="136" t="s">
         <v>689</v>
       </c>
@@ -8944,17 +8862,17 @@
         <v>-1.7256000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="37" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="37" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="136" t="s">
         <v>692</v>
       </c>
@@ -9067,7 +8985,7 @@
         <v>1.7056000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="136" t="s">
         <v>693</v>
       </c>
@@ -9180,12 +9098,12 @@
         <v>9.0349999999999996E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="37" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="136" t="s">
         <v>694</v>
       </c>
@@ -9298,7 +9216,7 @@
         <v>3.705E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="136" t="s">
         <v>695</v>
       </c>
@@ -9411,7 +9329,7 @@
         <v>1.5369000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="136" t="s">
         <v>696</v>
       </c>
@@ -9524,12 +9442,12 @@
         <v>1.5369000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="37" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="136" t="s">
         <v>699</v>
       </c>
@@ -9642,7 +9560,7 @@
         <v>1.0035000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="136" t="s">
         <v>700</v>
       </c>
@@ -9755,7 +9673,7 @@
         <v>3.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="136" t="s">
         <v>701</v>
       </c>
@@ -9868,7 +9786,7 @@
         <v>2.1198999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="136" t="s">
         <v>702</v>
       </c>
@@ -9981,12 +9899,12 @@
         <v>2.1198999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="37" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="136" t="s">
         <v>703</v>
       </c>
@@ -10099,7 +10017,7 @@
         <v>7.2020000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="136" t="s">
         <v>704</v>
       </c>
@@ -10212,7 +10130,7 @@
         <v>4.5929999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="136" t="s">
         <v>705</v>
       </c>
@@ -10325,7 +10243,7 @@
         <v>1.4269E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="136" t="s">
         <v>707</v>
       </c>
@@ -10438,7 +10356,7 @@
         <v>7.3080000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="136" t="s">
         <v>708</v>
       </c>
@@ -10551,7 +10469,7 @@
         <v>1.0869E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="136" t="s">
         <v>709</v>
       </c>
@@ -10664,7 +10582,7 @@
         <v>7.2100000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="136" t="s">
         <v>710</v>
       </c>
@@ -10777,7 +10695,7 @@
         <v>1.2945E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="136" t="s">
         <v>711</v>
       </c>
@@ -10890,12 +10808,12 @@
         <v>1.2945E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="37" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="136" t="s">
         <v>713</v>
       </c>
@@ -11008,7 +10926,7 @@
         <v>2.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="136" t="s">
         <v>714</v>
       </c>
@@ -11121,7 +11039,7 @@
         <v>9.8150000000000008E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="136" t="s">
         <v>715</v>
       </c>
@@ -11234,12 +11152,12 @@
         <v>9.8150000000000008E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="37" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="136" t="s">
         <v>717</v>
       </c>
@@ -11352,7 +11270,7 @@
         <v>1.5093000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="136" t="s">
         <v>718</v>
       </c>
@@ -11465,7 +11383,7 @@
         <v>7.3559999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="136" t="s">
         <v>719</v>
       </c>
@@ -11578,7 +11496,7 @@
         <v>1.0869E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="136" t="s">
         <v>720</v>
       </c>
@@ -11691,7 +11609,7 @@
         <v>6.4799999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="136" t="s">
         <v>721</v>
       </c>
@@ -11804,7 +11722,7 @@
         <v>1.2966999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="136" t="s">
         <v>722</v>
       </c>
@@ -11917,7 +11835,7 @@
         <v>1.2966999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="136" t="s">
         <v>723</v>
       </c>
@@ -12030,17 +11948,17 @@
         <v>5.8100000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="37" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="37" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="136" t="s">
         <v>726</v>
       </c>
@@ -12153,7 +12071,7 @@
         <v>3.5281E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="136" t="s">
         <v>727</v>
       </c>
@@ -12266,7 +12184,7 @@
         <v>3.6943999999999998E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="136" t="s">
         <v>728</v>
       </c>
@@ -12379,22 +12297,22 @@
         <v>3.8150999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="37" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="37" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="37" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="136" t="s">
         <v>731</v>
       </c>
@@ -12507,7 +12425,7 @@
         <v>4.0777000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="136" t="s">
         <v>732</v>
       </c>
@@ -12620,12 +12538,12 @@
         <v>3.2569000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="37" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="136" t="s">
         <v>733</v>
       </c>
@@ -12738,7 +12656,7 @@
         <v>2.7115E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="136" t="s">
         <v>734</v>
       </c>
@@ -12851,12 +12769,12 @@
         <v>3.9051000000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="37" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="136" t="s">
         <v>735</v>
       </c>
@@ -12969,7 +12887,7 @@
         <v>3.3591999999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="136" t="s">
         <v>736</v>
       </c>
@@ -13082,7 +13000,7 @@
         <v>2.6976E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="136" t="s">
         <v>737</v>
       </c>
@@ -13195,12 +13113,12 @@
         <v>4.5017000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="37" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="136" t="s">
         <v>738</v>
       </c>
@@ -13313,7 +13231,7 @@
         <v>3.0693999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="136" t="s">
         <v>739</v>
       </c>
@@ -13426,7 +13344,7 @@
         <v>2.8022999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="136" t="s">
         <v>740</v>
       </c>
@@ -13539,7 +13457,7 @@
         <v>3.7925E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="136" t="s">
         <v>741</v>
       </c>
@@ -13652,7 +13570,7 @@
         <v>3.0802E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="136" t="s">
         <v>742</v>
       </c>
@@ -13765,7 +13683,7 @@
         <v>3.4445999999999997E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="136" t="s">
         <v>743</v>
       </c>
@@ -13878,7 +13796,7 @@
         <v>3.0702E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="136" t="s">
         <v>744</v>
       </c>
@@ -13991,12 +13909,12 @@
         <v>3.6570999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="37" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="136" t="s">
         <v>745</v>
       </c>
@@ -14109,7 +14027,7 @@
         <v>2.5687999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="136" t="s">
         <v>746</v>
       </c>
@@ -14222,12 +14140,12 @@
         <v>3.3367000000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="37" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="136" t="s">
         <v>748</v>
       </c>
@@ -14340,7 +14258,7 @@
         <v>3.8767999999999997E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="136" t="s">
         <v>749</v>
       </c>
@@ -14453,7 +14371,7 @@
         <v>3.0851E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="136" t="s">
         <v>750</v>
       </c>
@@ -14566,7 +14484,7 @@
         <v>3.4445999999999997E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="136" t="s">
         <v>751</v>
       </c>
@@ -14679,7 +14597,7 @@
         <v>2.9954999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="136" t="s">
         <v>752</v>
       </c>
@@ -14792,7 +14710,7 @@
         <v>3.6592E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="136" t="s">
         <v>754</v>
       </c>
@@ -14905,8 +14823,8 @@
         <v>2.9269E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="149" t="s">
         <v>755</v>
       </c>
@@ -14946,97 +14864,97 @@
       <c r="AJ105" s="149"/>
       <c r="AK105" s="149"/>
     </row>
-    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="138" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="138" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="138" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="138" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="138" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="138" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="138" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="138" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="138" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="138" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="138" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="138" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="138" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="138" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="138" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="138" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="138" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="138" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="138" t="s">
         <v>772</v>
       </c>
@@ -15050,7 +14968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15060,16 +14978,16 @@
       <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="30" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="30" customWidth="1"/>
-    <col min="3" max="37" width="9.140625" style="30"/>
+    <col min="1" max="1" width="20.86328125" style="30" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="30" customWidth="1"/>
+    <col min="3" max="37" width="9.1328125" style="30"/>
     <col min="38" max="38" width="8" style="30" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="30"/>
+    <col min="39" max="16384" width="9.1328125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="31" t="s">
         <v>297</v>
       </c>
@@ -15179,8 +15097,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="33" t="s">
         <v>86</v>
       </c>
@@ -15191,7 +15109,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="33" t="s">
         <v>88</v>
       </c>
@@ -15204,7 +15122,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="33" t="s">
         <v>91</v>
       </c>
@@ -15215,7 +15133,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="33" t="s">
         <v>93</v>
       </c>
@@ -15226,7 +15144,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="34" t="s">
         <v>302</v>
       </c>
@@ -15234,12 +15152,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="31" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>98</v>
       </c>
@@ -15352,7 +15270,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="32" t="s">
         <v>306</v>
       </c>
@@ -15465,13 +15383,13 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="37" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="34" t="s">
         <v>308</v>
       </c>
@@ -15587,7 +15505,7 @@
         <v>8.3330000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="34" t="s">
         <v>310</v>
       </c>
@@ -15703,7 +15621,7 @@
         <v>1.5864E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="34" t="s">
         <v>312</v>
       </c>
@@ -15819,7 +15737,7 @@
         <v>6.8339999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="34" t="s">
         <v>314</v>
       </c>
@@ -15935,12 +15853,12 @@
         <v>2.8249999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="37" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="34" t="s">
         <v>317</v>
       </c>
@@ -16056,7 +15974,7 @@
         <v>8.1089999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="34" t="s">
         <v>318</v>
       </c>
@@ -16172,7 +16090,7 @@
         <v>1.4888999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="34" t="s">
         <v>319</v>
       </c>
@@ -16288,7 +16206,7 @@
         <v>2.4073000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="34" t="s">
         <v>321</v>
       </c>
@@ -16404,7 +16322,7 @@
         <v>8.8319999999999996E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="34" t="s">
         <v>322</v>
       </c>
@@ -16520,12 +16438,12 @@
         <v>4.4000000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="37" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="34" t="s">
         <v>324</v>
       </c>
@@ -16641,7 +16559,7 @@
         <v>1.0921E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="34" t="s">
         <v>325</v>
       </c>
@@ -16757,7 +16675,7 @@
         <v>1.4662E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="34" t="s">
         <v>326</v>
       </c>
@@ -16873,7 +16791,7 @@
         <v>2.8698000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="34" t="s">
         <v>327</v>
       </c>
@@ -16989,7 +16907,7 @@
         <v>1.2104E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="34" t="s">
         <v>329</v>
       </c>
@@ -17105,7 +17023,7 @@
         <v>5.8199999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="34" t="s">
         <v>331</v>
       </c>
@@ -17221,7 +17139,7 @@
         <v>2.3770000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="34" t="s">
         <v>333</v>
       </c>
@@ -17337,7 +17255,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="34" t="s">
         <v>335</v>
       </c>
@@ -17453,12 +17371,12 @@
         <v>-6.2000000000000003E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="37" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="34" t="s">
         <v>337</v>
       </c>
@@ -17574,7 +17492,7 @@
         <v>8.1810000000000008E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="34" t="s">
         <v>338</v>
       </c>
@@ -17690,7 +17608,7 @@
         <v>1.2175E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="34" t="s">
         <v>340</v>
       </c>
@@ -17806,7 +17724,7 @@
         <v>1.1884E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="34" t="s">
         <v>342</v>
       </c>
@@ -17922,7 +17840,7 @@
         <v>2.1884000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="34" t="s">
         <v>344</v>
       </c>
@@ -18038,7 +17956,7 @@
         <v>1.3188E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="34" t="s">
         <v>346</v>
       </c>
@@ -18154,7 +18072,7 @@
         <v>2.1094000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="34" t="s">
         <v>347</v>
       </c>
@@ -18270,7 +18188,7 @@
         <v>-2.9589999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="34" t="s">
         <v>349</v>
       </c>
@@ -18386,12 +18304,12 @@
         <v>5.7159999999999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="37" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="34" t="s">
         <v>351</v>
       </c>
@@ -18507,7 +18425,7 @@
         <v>1.7205000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="34" t="s">
         <v>352</v>
       </c>
@@ -18623,7 +18541,7 @@
         <v>1.5525000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="34" t="s">
         <v>353</v>
       </c>
@@ -18739,7 +18657,7 @@
         <v>1.3625E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="34" t="s">
         <v>354</v>
       </c>
@@ -18855,7 +18773,7 @@
         <v>4.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="34" t="s">
         <v>356</v>
       </c>
@@ -18971,12 +18889,12 @@
         <v>2.4750000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="37" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="34" t="s">
         <v>359</v>
       </c>
@@ -19092,7 +19010,7 @@
         <v>9.2429999999999995E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="34" t="s">
         <v>360</v>
       </c>
@@ -19208,7 +19126,7 @@
         <v>1.2175E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="34" t="s">
         <v>361</v>
       </c>
@@ -19324,7 +19242,7 @@
         <v>1.1922E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="34" t="s">
         <v>362</v>
       </c>
@@ -19440,7 +19358,7 @@
         <v>2.1884000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="34" t="s">
         <v>363</v>
       </c>
@@ -19556,7 +19474,7 @@
         <v>1.3439E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="34" t="s">
         <v>364</v>
       </c>
@@ -19672,7 +19590,7 @@
         <v>2.0490999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="34" t="s">
         <v>365</v>
       </c>
@@ -19788,7 +19706,7 @@
         <v>9.4990000000000005E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="34" t="s">
         <v>366</v>
       </c>
@@ -19904,7 +19822,7 @@
         <v>5.8199999999999997E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="34" t="s">
         <v>367</v>
       </c>
@@ -20020,7 +19938,7 @@
         <v>4.1879999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="34" t="s">
         <v>369</v>
       </c>
@@ -20136,7 +20054,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="34" t="s">
         <v>370</v>
       </c>
@@ -20252,17 +20170,17 @@
         <v>1.1919999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="37" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="37" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="34" t="s">
         <v>373</v>
       </c>
@@ -20378,7 +20296,7 @@
         <v>6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="34" t="s">
         <v>374</v>
       </c>
@@ -20494,7 +20412,7 @@
         <v>7.8270000000000006E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="34" t="s">
         <v>375</v>
       </c>
@@ -20610,7 +20528,7 @@
         <v>1.9784E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="34" t="s">
         <v>376</v>
       </c>
@@ -20726,7 +20644,7 @@
         <v>1.0146000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="34" t="s">
         <v>377</v>
       </c>
@@ -20842,7 +20760,7 @@
         <v>1.0697999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="34" t="s">
         <v>379</v>
       </c>
@@ -20958,7 +20876,7 @@
         <v>0.100878</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="34" t="s">
         <v>381</v>
       </c>
@@ -21074,17 +20992,17 @@
         <v>1.0796E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="37" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="37" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="34" t="s">
         <v>384</v>
       </c>
@@ -21200,7 +21118,7 @@
         <v>3.1983999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="34" t="s">
         <v>385</v>
       </c>
@@ -21316,7 +21234,7 @@
         <v>3.9690999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="34" t="s">
         <v>386</v>
       </c>
@@ -21432,7 +21350,7 @@
         <v>3.0449E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="34" t="s">
         <v>387</v>
       </c>
@@ -21548,12 +21466,12 @@
         <v>2.6346999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="37" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="34" t="s">
         <v>388</v>
       </c>
@@ -21669,7 +21587,7 @@
         <v>3.1753999999999998E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="34" t="s">
         <v>389</v>
       </c>
@@ -21785,7 +21703,7 @@
         <v>3.8693999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="34" t="s">
         <v>390</v>
       </c>
@@ -21901,7 +21819,7 @@
         <v>4.8093999999999998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="34" t="s">
         <v>391</v>
       </c>
@@ -22017,7 +21935,7 @@
         <v>3.2495000000000003E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="34" t="s">
         <v>392</v>
       </c>
@@ -22133,12 +22051,12 @@
         <v>2.3906E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="37" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="34" t="s">
         <v>393</v>
       </c>
@@ -22254,7 +22172,7 @@
         <v>3.4632999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="34" t="s">
         <v>394</v>
       </c>
@@ -22370,7 +22288,7 @@
         <v>3.8461000000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="34" t="s">
         <v>395</v>
       </c>
@@ -22486,7 +22404,7 @@
         <v>5.2825999999999998E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="34" t="s">
         <v>396</v>
       </c>
@@ -22602,7 +22520,7 @@
         <v>3.5843E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="34" t="s">
         <v>397</v>
       </c>
@@ -22718,7 +22636,7 @@
         <v>2.9412000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="34" t="s">
         <v>398</v>
       </c>
@@ -22834,7 +22752,7 @@
         <v>2.5888000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="34" t="s">
         <v>399</v>
       </c>
@@ -22950,7 +22868,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="34" t="s">
         <v>400</v>
       </c>
@@ -23066,12 +22984,12 @@
         <v>2.3392E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="37" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="106" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="34" t="s">
         <v>401</v>
       </c>
@@ -23187,7 +23105,7 @@
         <v>3.1828000000000002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="34" t="s">
         <v>402</v>
       </c>
@@ -23303,7 +23221,7 @@
         <v>3.5915999999999997E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="34" t="s">
         <v>403</v>
       </c>
@@ -23419,7 +23337,7 @@
         <v>3.5617999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="34" t="s">
         <v>404</v>
       </c>
@@ -23535,7 +23453,7 @@
         <v>4.5852999999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="34" t="s">
         <v>405</v>
       </c>
@@ -23651,7 +23569,7 @@
         <v>3.6951999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="34" t="s">
         <v>406</v>
       </c>
@@ -23767,7 +23685,7 @@
         <v>4.5044000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="34" t="s">
         <v>407</v>
       </c>
@@ -23883,7 +23801,7 @@
         <v>2.0427000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="34" t="s">
         <v>408</v>
       </c>
@@ -23999,12 +23917,12 @@
         <v>2.9305000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="37" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="34" t="s">
         <v>409</v>
       </c>
@@ -24120,7 +24038,7 @@
         <v>4.1064000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="34" t="s">
         <v>410</v>
       </c>
@@ -24236,7 +24154,7 @@
         <v>3.9343999999999997E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="34" t="s">
         <v>411</v>
       </c>
@@ -24352,7 +24270,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="34" t="s">
         <v>412</v>
       </c>
@@ -24468,7 +24386,7 @@
         <v>2.7744999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="34" t="s">
         <v>413</v>
       </c>
@@ -24584,12 +24502,12 @@
         <v>2.5989000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="37" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="34" t="s">
         <v>414</v>
       </c>
@@ -24705,7 +24623,7 @@
         <v>3.2916000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="34" t="s">
         <v>415</v>
       </c>
@@ -24821,7 +24739,7 @@
         <v>3.5915999999999997E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="34" t="s">
         <v>416</v>
       </c>
@@ -24937,7 +24855,7 @@
         <v>3.5657000000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="34" t="s">
         <v>417</v>
       </c>
@@ -25053,7 +24971,7 @@
         <v>4.5852999999999998E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="34" t="s">
         <v>418</v>
       </c>
@@ -25169,7 +25087,7 @@
         <v>3.721E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="34" t="s">
         <v>419</v>
       </c>
@@ -25285,7 +25203,7 @@
         <v>4.4427000000000001E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="34" t="s">
         <v>420</v>
       </c>
@@ -25401,7 +25319,7 @@
         <v>3.3176999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="34" t="s">
         <v>421</v>
       </c>
@@ -25517,7 +25435,7 @@
         <v>2.9412000000000001E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="34" t="s">
         <v>422</v>
       </c>
@@ -25633,7 +25551,7 @@
         <v>2.7740999999999998E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="34" t="s">
         <v>423</v>
       </c>
@@ -25749,7 +25667,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="133" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="34" t="s">
         <v>424</v>
       </c>
@@ -25865,17 +25783,17 @@
         <v>2.4676E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="37" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="136" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="37" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="137" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="34" t="s">
         <v>426</v>
       </c>
@@ -25991,7 +25909,7 @@
         <v>2.9680999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="34" t="s">
         <v>427</v>
       </c>
@@ -26107,7 +26025,7 @@
         <v>3.1466000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="34" t="s">
         <v>428</v>
       </c>
@@ -26223,7 +26141,7 @@
         <v>4.3704E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="34" t="s">
         <v>429</v>
       </c>
@@ -26339,7 +26257,7 @@
         <v>3.3839000000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="34" t="s">
         <v>430</v>
       </c>
@@ -26455,7 +26373,7 @@
         <v>3.4404999999999998E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="34" t="s">
         <v>431</v>
       </c>
@@ -26571,7 +26489,7 @@
         <v>0.12669900000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="34" t="s">
         <v>432</v>
       </c>
@@ -26687,8 +26605,8 @@
         <v>3.4505000000000001E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="146" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="149" t="s">
         <v>433</v>
       </c>
@@ -26729,127 +26647,127 @@
       <c r="AK146" s="149"/>
       <c r="AL146" s="149"/>
     </row>
-    <row r="147" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="46" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="148" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="46" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="149" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="46" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="150" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="46" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="46" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="46" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="153" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="46" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="154" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="46" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="155" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="46" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="156" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="46" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="157" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="46" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="158" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="46" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="159" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="46" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="160" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="46" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="46" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="46" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="46" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="46" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="46" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="46" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="46" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="46" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="46" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="46" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="46" t="s">
         <v>457</v>
       </c>
@@ -26864,7 +26782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -26877,17 +26795,17 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="10" style="8" customWidth="1"/>
     <col min="10" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="27" width="9.1328125" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -26994,7 +26912,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -27135,7 +27053,7 @@
         <v>2.3355901845663712E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -27242,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -27383,7 +27301,7 @@
         <v>1.8047041017222139E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -27524,7 +27442,7 @@
         <v>3.1275380043559531E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -27665,7 +27583,7 @@
         <v>2.5115114069321967E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -27806,7 +27724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -27922,7 +27840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -28063,7 +27981,7 @@
         <v>2.5115114069321967E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C10" s="12"/>
     </row>
   </sheetData>
@@ -28072,7 +27990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -28085,16 +28003,16 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -28201,7 +28119,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -28317,7 +28235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -28458,7 +28376,7 @@
         <v>1.8081128238120326E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -28565,7 +28483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -28672,7 +28590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -28813,7 +28731,7 @@
         <v>1.6995003165898783E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -28920,7 +28838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -29036,7 +28954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -29183,7 +29101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -29196,18 +29114,18 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="32" width="9.140625" style="9"/>
-    <col min="33" max="35" width="10.42578125" style="9" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="32" width="9.1328125" style="9"/>
+    <col min="33" max="35" width="10.3984375" style="9" customWidth="1"/>
+    <col min="36" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -29314,7 +29232,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -29455,7 +29373,7 @@
         <v>2.5860259950280057E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -29596,7 +29514,7 @@
         <v>4.4085310835775151E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -29737,7 +29655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -29878,7 +29796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -30019,7 +29937,7 @@
         <v>4.2077103926221482E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -30126,7 +30044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -30242,7 +30160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -30389,7 +30307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -30402,14 +30320,14 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -30516,7 +30434,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -30623,7 +30541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -30764,7 +30682,7 @@
         <v>8.006182380216383E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -30871,7 +30789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -30978,7 +30896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -31085,7 +31003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -31192,7 +31110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -31299,7 +31217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -31446,7 +31364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -31459,14 +31377,14 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="27" width="10" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="9"/>
+    <col min="28" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -31573,7 +31491,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -31688,7 +31606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -31803,7 +31721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -31918,7 +31836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -32033,7 +31951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -32148,7 +32066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -32263,7 +32181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -32378,7 +32296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -32525,7 +32443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -32538,14 +32456,14 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="27" width="10" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="9"/>
+    <col min="28" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -32652,7 +32570,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -32767,7 +32685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -32882,7 +32800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -32997,7 +32915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -33112,7 +33030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -33227,7 +33145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -33342,7 +33260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -33457,7 +33375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -33604,7 +33522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -33617,14 +33535,14 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="27" width="10" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="9"/>
+    <col min="28" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -33731,7 +33649,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -33846,7 +33764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -33961,7 +33879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -34076,7 +33994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -34191,7 +34109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -34306,7 +34224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -34421,7 +34339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -34536,7 +34454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -34683,7 +34601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -34696,14 +34614,14 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -34810,7 +34728,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -34926,7 +34844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -35067,7 +34985,7 @@
         <v>3.2223799272623401E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -35208,7 +35126,7 @@
         <v>3.2223799272623401E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -35349,7 +35267,7 @@
         <v>3.2223799272623401E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -35490,7 +35408,7 @@
         <v>3.2223799272623401E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -35597,7 +35515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -35713,7 +35631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -35854,7 +35772,7 @@
         <v>3.2223799272623401E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="D11" s="7"/>
     </row>
   </sheetData>
@@ -35863,7 +35781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35873,16 +35791,16 @@
       <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="30" customWidth="1"/>
-    <col min="3" max="31" width="9.28515625" style="30"/>
+    <col min="1" max="1" width="20.73046875" style="30" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="30" customWidth="1"/>
+    <col min="3" max="31" width="9.265625" style="30"/>
     <col min="32" max="32" width="8" style="30" customWidth="1"/>
-    <col min="33" max="16384" width="9.28515625" style="30"/>
+    <col min="33" max="16384" width="9.265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="31" t="s">
         <v>85</v>
       </c>
@@ -35968,8 +35886,8 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="33" t="s">
         <v>86</v>
       </c>
@@ -35980,7 +35898,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="33" t="s">
         <v>88</v>
       </c>
@@ -35993,7 +35911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="33" t="s">
         <v>91</v>
       </c>
@@ -36004,7 +35922,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="33" t="s">
         <v>93</v>
       </c>
@@ -36015,7 +35933,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="34" t="s">
         <v>95</v>
       </c>
@@ -36023,12 +35941,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>98</v>
       </c>
@@ -36117,7 +36035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="32" t="s">
         <v>98</v>
       </c>
@@ -36206,17 +36124,17 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="34" t="s">
         <v>102</v>
       </c>
@@ -36308,7 +36226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="34" t="s">
         <v>104</v>
       </c>
@@ -36400,7 +36318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="34" t="s">
         <v>106</v>
       </c>
@@ -36492,7 +36410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="34" t="s">
         <v>108</v>
       </c>
@@ -36584,7 +36502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="34" t="s">
         <v>110</v>
       </c>
@@ -36676,7 +36594,7 @@
         <v>-3.6000000000000001E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="34" t="s">
         <v>112</v>
       </c>
@@ -36768,7 +36686,7 @@
         <v>-3.6000000000000001E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="34" t="s">
         <v>114</v>
       </c>
@@ -36860,7 +36778,7 @@
         <v>-3.6000000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="34" t="s">
         <v>116</v>
       </c>
@@ -36952,7 +36870,7 @@
         <v>-3.6000000000000001E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="34" t="s">
         <v>118</v>
       </c>
@@ -37044,7 +36962,7 @@
         <v>-3.6000000000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="34" t="s">
         <v>120</v>
       </c>
@@ -37136,7 +37054,7 @@
         <v>-3.6000000000000001E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="34" t="s">
         <v>122</v>
       </c>
@@ -37228,7 +37146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="34" t="s">
         <v>124</v>
       </c>
@@ -37320,7 +37238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="34" t="s">
         <v>126</v>
       </c>
@@ -37412,7 +37330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="34" t="s">
         <v>128</v>
       </c>
@@ -37504,7 +37422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="34" t="s">
         <v>130</v>
       </c>
@@ -37596,7 +37514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="34" t="s">
         <v>132</v>
       </c>
@@ -37688,7 +37606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="34" t="s">
         <v>134</v>
       </c>
@@ -37780,7 +37698,7 @@
         <v>-2.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="34" t="s">
         <v>136</v>
       </c>
@@ -37872,7 +37790,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="34" t="s">
         <v>138</v>
       </c>
@@ -37964,7 +37882,7 @@
         <v>-3.2899999999999997E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="34" t="s">
         <v>140</v>
       </c>
@@ -38056,7 +37974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="34" t="s">
         <v>142</v>
       </c>
@@ -38148,7 +38066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="34" t="s">
         <v>144</v>
       </c>
@@ -38240,7 +38158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="34" t="s">
         <v>146</v>
       </c>
@@ -38332,7 +38250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="34" t="s">
         <v>148</v>
       </c>
@@ -38424,7 +38342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="34" t="s">
         <v>150</v>
       </c>
@@ -38516,7 +38434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="34" t="s">
         <v>152</v>
       </c>
@@ -38608,7 +38526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="34" t="s">
         <v>154</v>
       </c>
@@ -38700,7 +38618,7 @@
         <v>-7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="34" t="s">
         <v>156</v>
       </c>
@@ -38792,7 +38710,7 @@
         <v>-3.4200000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="34" t="s">
         <v>158</v>
       </c>
@@ -38884,7 +38802,7 @@
         <v>-5.28E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="34" t="s">
         <v>160</v>
       </c>
@@ -38976,12 +38894,12 @@
         <v>-1.9580000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="41" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="34" t="s">
         <v>163</v>
       </c>
@@ -39073,7 +38991,7 @@
         <v>4.5000000000000003E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="34" t="s">
         <v>165</v>
       </c>
@@ -39165,7 +39083,7 @@
         <v>3.1599999999999998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="34" t="s">
         <v>167</v>
       </c>
@@ -39257,7 +39175,7 @@
         <v>-6.11E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="34" t="s">
         <v>169</v>
       </c>
@@ -39349,12 +39267,12 @@
         <v>-8.9599999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="34" t="s">
         <v>172</v>
       </c>
@@ -39446,7 +39364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="34" t="s">
         <v>174</v>
       </c>
@@ -39538,7 +39456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="34" t="s">
         <v>176</v>
       </c>
@@ -39630,7 +39548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="34" t="s">
         <v>178</v>
       </c>
@@ -39722,7 +39640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="34" t="s">
         <v>180</v>
       </c>
@@ -39814,7 +39732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="34" t="s">
         <v>182</v>
       </c>
@@ -39906,7 +39824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="34" t="s">
         <v>184</v>
       </c>
@@ -39998,12 +39916,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="34" t="s">
         <v>187</v>
       </c>
@@ -40095,7 +40013,7 @@
         <v>4.9299999999999995E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="34" t="s">
         <v>188</v>
       </c>
@@ -40187,7 +40105,7 @@
         <v>-1.2E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="34" t="s">
         <v>190</v>
       </c>
@@ -40279,7 +40197,7 @@
         <v>-1.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="34" t="s">
         <v>192</v>
       </c>
@@ -40371,7 +40289,7 @@
         <v>5.3000000000000001E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="34" t="s">
         <v>193</v>
       </c>
@@ -40463,7 +40381,7 @@
         <v>-1.15E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="34" t="s">
         <v>195</v>
       </c>
@@ -40555,7 +40473,7 @@
         <v>4.3300000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="34" t="s">
         <v>197</v>
       </c>
@@ -40647,7 +40565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="34" t="s">
         <v>199</v>
       </c>
@@ -40739,7 +40657,7 @@
         <v>-1.8799999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="34" t="s">
         <v>201</v>
       </c>
@@ -40831,7 +40749,7 @@
         <v>3.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="34" t="s">
         <v>202</v>
       </c>
@@ -40923,7 +40841,7 @@
         <v>-2.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="34" t="s">
         <v>203</v>
       </c>
@@ -41015,7 +40933,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="34" t="s">
         <v>206</v>
       </c>
@@ -41107,7 +41025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="34" t="s">
         <v>208</v>
       </c>
@@ -41199,8 +41117,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="149" t="s">
         <v>210</v>
       </c>
@@ -41233,32 +41151,32 @@
       <c r="AC77" s="149"/>
       <c r="AD77" s="149"/>
     </row>
-    <row r="78" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="46" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="46" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="46" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="46" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="46" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="46" t="s">
         <v>216</v>
       </c>
@@ -41273,7 +41191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -41286,16 +41204,16 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -41402,7 +41320,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -41543,7 +41461,7 @@
         <v>4.848743580326797E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -41659,7 +41577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -41775,7 +41693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -41891,7 +41809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -42007,7 +41925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -42148,7 +42066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -42264,7 +42182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -42411,7 +42329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -42424,16 +42342,16 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -42540,7 +42458,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -42681,7 +42599,7 @@
         <v>4.0392025270784999E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -42822,7 +42740,7 @@
         <v>4.593771144851996E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -42963,7 +42881,7 @@
         <v>1.3299628338922035E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -43104,7 +43022,7 @@
         <v>1.2881187973120528E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -43245,7 +43163,7 @@
         <v>4.2348793323635302E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -43352,7 +43270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -43468,7 +43386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -43615,7 +43533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -43628,14 +43546,14 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -43742,7 +43660,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -43884,7 +43802,7 @@
       </c>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -44000,7 +43918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -44116,7 +44034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -44232,7 +44150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -44348,7 +44266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -44489,7 +44407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -44605,7 +44523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -44752,7 +44670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -44765,14 +44683,14 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -44879,7 +44797,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -45020,7 +44938,7 @@
         <v>4.0392025270784999E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -45161,7 +45079,7 @@
         <v>4.593771144851996E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -45302,7 +45220,7 @@
         <v>1.3299628338922035E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -45443,7 +45361,7 @@
         <v>1.2881187973120528E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -45584,7 +45502,7 @@
         <v>4.2348793323635302E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -45691,7 +45609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -45807,7 +45725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -45954,7 +45872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -45967,16 +45885,16 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -46083,7 +46001,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -46224,7 +46142,7 @@
         <v>5.1820536940770134E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -46340,7 +46258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -46456,7 +46374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -46572,7 +46490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -46688,7 +46606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -46829,7 +46747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -46945,7 +46863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -47092,27 +47010,27 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AJ9" sqref="AJ9:AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -47219,7 +47137,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -47326,7 +47244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -47433,7 +47351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -47540,7 +47458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -47647,7 +47565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -47754,7 +47672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -47861,7 +47779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -47968,7 +47886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -47977,7 +47895,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" ref="C9:AK9" si="0">C6</f>
+        <f t="shared" ref="C9:AI9" si="0">C6</f>
         <v>0</v>
       </c>
       <c r="D9" s="9">
@@ -48115,29 +48033,29 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="26" width="10" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="9"/>
+    <col min="27" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -48244,7 +48162,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -48351,7 +48269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -48492,7 +48410,7 @@
         <v>2.3079290675208906E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -48599,7 +48517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -48706,7 +48624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -48847,7 +48765,7 @@
         <v>2.3074416836786752E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -48954,7 +48872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -49061,7 +48979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -49208,27 +49126,27 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="27" width="10" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="9"/>
+    <col min="28" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -49335,7 +49253,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -49450,7 +49368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -49565,7 +49483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -49680,7 +49598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -49795,7 +49713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -49910,7 +49828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -50025,7 +49943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -50140,7 +50058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -50287,28 +50205,28 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE29DE69-330A-429D-B8B9-546BAFFCC547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="A9" sqref="A9"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="25" width="10" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="26" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -50415,7 +50333,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -50532,7 +50450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -50673,7 +50591,7 @@
         <v>1.4096443525685681E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -50780,7 +50698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -50887,7 +50805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -51028,7 +50946,7 @@
         <v>1.4096443525685681E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -51145,7 +51063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -51262,7 +51180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -51410,28 +51328,28 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D2CAC2-0C36-422E-BF14-266384ACC515}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="A9" sqref="A9"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="25" width="10" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="26" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -51538,7 +51456,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -51645,7 +51563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -51786,7 +51704,7 @@
         <v>2.8452337372234344E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -51893,7 +51811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -52000,7 +51918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -52141,7 +52059,7 @@
         <v>4.3550350275108487E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -52248,7 +52166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -52365,7 +52283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -52513,40 +52431,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="84" t="s">
         <v>560</v>
       </c>
@@ -52575,7 +52493,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>479.84</v>
       </c>
@@ -52610,7 +52528,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>A4/100</f>
         <v>4.7984</v>
@@ -52655,7 +52573,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <f>A5/'Conversion Factors'!$B$27</f>
         <v>1.4062728961883159E-3</v>
@@ -52699,7 +52617,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <f>A6/'Conversion Factors'!$C$8</f>
         <v>1.2172886189797574E-3</v>
@@ -52743,7 +52661,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <f>A7/'Conversion Factors'!$B$19</f>
         <v>1.9221358265904903E-5</v>
@@ -52787,14 +52705,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E10" s="67" t="s">
         <v>483</v>
       </c>
       <c r="H10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E11" s="67" t="s">
         <v>482</v>
       </c>
@@ -52805,28 +52723,28 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0477FEA9-9CCA-433A-8D32-5449589EF65E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="A9" sqref="A9"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="25" width="10" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="26" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -52933,7 +52851,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -53040,7 +52958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -53147,7 +53065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -53288,7 +53206,7 @@
         <v>1.7874325020245288E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -53429,7 +53347,7 @@
         <v>1.7747515104846314E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -53570,7 +53488,7 @@
         <v>1.9419167563904157E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -53687,7 +53605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -53804,7 +53722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -53952,28 +53870,28 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3238244C-BA56-44D7-85D4-04F9210802E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="A9" sqref="A9"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="25" width="10" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="26" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -54080,7 +53998,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -54197,7 +54115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -54338,7 +54256,7 @@
         <v>2.0261479263456279E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -54455,7 +54373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -54572,7 +54490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -54713,7 +54631,7 @@
         <v>2.0261479263456279E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -54830,7 +54748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -54947,7 +54865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -55095,13 +55013,13 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DBA1F0-ED00-49A3-B9F3-F3F960589170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="A9" sqref="A9"/>
@@ -55109,14 +55027,14 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41.3984375" style="9" customWidth="1"/>
     <col min="2" max="25" width="10" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="26" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>466</v>
       </c>
@@ -55223,7 +55141,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>467</v>
       </c>
@@ -55330,7 +55248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>468</v>
       </c>
@@ -55437,7 +55355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>469</v>
       </c>
@@ -55544,7 +55462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>470</v>
       </c>
@@ -55651,7 +55569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>471</v>
       </c>
@@ -55758,7 +55676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>472</v>
       </c>
@@ -55865,7 +55783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>473</v>
       </c>
@@ -55982,7 +55900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>851</v>
       </c>
@@ -56130,28 +56048,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>274</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -56162,7 +56080,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>278</v>
       </c>
@@ -56173,7 +56091,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5">
         <f>B4/100</f>
         <v>2.2534999999999998</v>
@@ -56182,7 +56100,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="23">
         <f>B5/B3</f>
         <v>3.0046666666666666</v>
@@ -56191,7 +56109,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="7">
         <f>B6/'Conversion Factors'!B65</f>
         <v>1.1656451753585403E-4</v>
@@ -56200,7 +56118,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="7">
         <f>B7/'Conversion Factors'!$C$8</f>
         <v>1.0089980469499174E-4</v>
@@ -56209,7 +56127,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="7">
         <f>B8/'Conversion Factors'!$B$19</f>
         <v>1.5932386656401663E-6</v>
@@ -56218,22 +56136,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -56244,7 +56162,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -56255,7 +56173,7 @@
         <v>675.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>284</v>
       </c>
@@ -56266,7 +56184,7 @@
         <v>975724.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>285</v>
       </c>
@@ -56279,7 +56197,7 @@
         <v>1444.6619780870594</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -56290,7 +56208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>275</v>
       </c>
@@ -56301,7 +56219,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>284</v>
       </c>
@@ -56312,7 +56230,7 @@
         <v>79416.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>285</v>
       </c>
@@ -56325,12 +56243,12 @@
         <v>1702.759433962264</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -56342,7 +56260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -56360,16 +56278,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50CFE29-4575-46A7-BA45-CD4BCF2AFFC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.899999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="152" t="s">
         <v>594</v>
       </c>
@@ -56394,7 +56312,7 @@
       <c r="S1" s="152"/>
       <c r="T1" s="152"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="93"/>
       <c r="B2" s="94"/>
       <c r="C2" s="94"/>
@@ -56419,7 +56337,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="38.25" x14ac:dyDescent="0.45">
       <c r="A3" s="95" t="s">
         <v>10</v>
       </c>
@@ -56478,7 +56396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="97">
         <v>1</v>
       </c>
@@ -56537,7 +56455,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="98" t="s">
         <v>605</v>
       </c>
@@ -56596,7 +56514,7 @@
         <v>32.42</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="98" t="s">
         <v>607</v>
       </c>
@@ -56655,7 +56573,7 @@
         <v>33.43</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>608</v>
       </c>
@@ -56714,7 +56632,7 @@
         <v>38.528199999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="103" t="s">
         <v>609</v>
       </c>
@@ -56773,7 +56691,7 @@
         <v>41.883740000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="104" t="s">
         <v>610</v>
       </c>
@@ -56832,7 +56750,7 @@
         <v>43.149000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="104" t="s">
         <v>611</v>
       </c>
@@ -56891,7 +56809,7 @@
         <v>43.896999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="104" t="s">
         <v>612</v>
       </c>
@@ -56950,7 +56868,7 @@
         <v>46.948999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="105" t="s">
         <v>613</v>
       </c>
@@ -57009,7 +56927,7 @@
         <v>42.211000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="105" t="s">
         <v>614</v>
       </c>
@@ -57069,7 +56987,7 @@
         <v>43.154999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="105" t="s">
         <v>615</v>
       </c>
@@ -57129,7 +57047,7 @@
         <v>45.817999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A15" s="109" t="s">
         <v>616</v>
       </c>
@@ -57198,7 +57116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="63.75" x14ac:dyDescent="0.45">
       <c r="A16" s="111" t="s">
         <v>617</v>
       </c>
@@ -57267,7 +57185,7 @@
         <v>6.1707797474220882</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="51" x14ac:dyDescent="0.45">
       <c r="A17" s="113" t="s">
         <v>618</v>
       </c>
@@ -57323,17 +57241,17 @@
         <v>3.5195348138282068</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="67" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="67" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="115" t="s">
         <v>619</v>
       </c>
@@ -57348,7 +57266,7 @@
       <c r="S20" s="153"/>
       <c r="T20" s="153"/>
     </row>
-    <row r="21" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="132" t="s">
         <v>620</v>
       </c>
@@ -57372,7 +57290,7 @@
       <c r="S21" s="150"/>
       <c r="T21" s="150"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="116" t="s">
         <v>621</v>
       </c>
@@ -57387,7 +57305,7 @@
       <c r="S22" s="130"/>
       <c r="T22" s="130"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M23" s="151" t="s">
         <v>628</v>
       </c>
@@ -57412,22 +57330,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BA3ABF-D9A4-4111-89B9-0F4F0CF07886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="9" customWidth="1"/>
     <col min="3" max="10" width="14" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="9"/>
+    <col min="11" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="155" t="s">
         <v>491</v>
       </c>
@@ -57441,7 +57359,7 @@
       <c r="I1" s="156"/>
       <c r="J1" s="157"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="158" t="s">
         <v>492</v>
       </c>
@@ -57455,7 +57373,7 @@
       <c r="I2" s="159"/>
       <c r="J2" s="160"/>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="161" t="s">
         <v>493</v>
       </c>
@@ -57475,7 +57393,7 @@
       <c r="I3" s="164"/>
       <c r="J3" s="165"/>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="162"/>
       <c r="B4" s="68" t="s">
         <v>496</v>
@@ -57505,7 +57423,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="69" t="s">
         <v>499</v>
       </c>
@@ -57537,7 +57455,7 @@
         <v>66904</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="69" t="s">
         <v>500</v>
       </c>
@@ -57569,7 +57487,7 @@
         <v>7318145</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="69" t="s">
         <v>501</v>
       </c>
@@ -57601,7 +57519,7 @@
         <v>14020170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="77" t="s">
         <v>502</v>
       </c>
@@ -57633,7 +57551,7 @@
         <v>149468</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="77" t="s">
         <v>261</v>
       </c>
@@ -57665,7 +57583,7 @@
         <v>2138088</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="69" t="s">
         <v>503</v>
       </c>
@@ -57697,7 +57615,7 @@
         <v>5553709</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="69" t="s">
         <v>504</v>
       </c>
@@ -57729,7 +57647,7 @@
         <v>462946</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="69" t="s">
         <v>505</v>
       </c>
@@ -57761,7 +57679,7 @@
         <v>2901768</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="69" t="s">
         <v>506</v>
       </c>
@@ -57793,7 +57711,7 @@
         <v>65140</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="69" t="s">
         <v>507</v>
       </c>
@@ -57825,7 +57743,7 @@
         <v>64945</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="69" t="s">
         <v>23</v>
       </c>
@@ -57857,7 +57775,7 @@
         <v>7607894</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="69" t="s">
         <v>508</v>
       </c>
@@ -57889,7 +57807,7 @@
         <v>443110</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="69" t="s">
         <v>509</v>
       </c>
@@ -57921,7 +57839,7 @@
         <v>12052982</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="69" t="s">
         <v>14</v>
       </c>
@@ -57953,7 +57871,7 @@
         <v>4121375</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="69" t="s">
         <v>510</v>
       </c>
@@ -57985,7 +57903,7 @@
         <v>317024</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="69" t="s">
         <v>511</v>
       </c>
@@ -58017,7 +57935,7 @@
         <v>1567057</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="69" t="s">
         <v>512</v>
       </c>
@@ -58049,7 +57967,7 @@
         <v>3779232</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="69" t="s">
         <v>513</v>
       </c>
@@ -58081,7 +57999,7 @@
         <v>11588659</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="69" t="s">
         <v>514</v>
       </c>
@@ -58113,7 +58031,7 @@
         <v>8315568</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="69" t="s">
         <v>515</v>
       </c>
@@ -58145,7 +58063,7 @@
         <v>24452</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="69" t="s">
         <v>516</v>
       </c>
@@ -58177,7 +58095,7 @@
         <v>9606487</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="69" t="s">
         <v>15</v>
       </c>
@@ -58209,7 +58127,7 @@
         <v>24114237</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="77" t="s">
         <v>263</v>
       </c>
@@ -58241,7 +58159,7 @@
         <v>422452</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="77" t="s">
         <v>266</v>
       </c>
@@ -58273,7 +58191,7 @@
         <v>297878</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="77" t="s">
         <v>264</v>
       </c>
@@ -58305,7 +58223,7 @@
         <v>285567</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="77" t="s">
         <v>262</v>
       </c>
@@ -58337,7 +58255,7 @@
         <v>271789</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="69" t="s">
         <v>517</v>
       </c>
@@ -58369,7 +58287,7 @@
         <v>3377723</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="69" t="s">
         <v>518</v>
       </c>
@@ -58401,7 +58319,7 @@
         <v>435149</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="69" t="s">
         <v>16</v>
       </c>
@@ -58433,7 +58351,7 @@
         <v>4853157</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="69" t="s">
         <v>17</v>
       </c>
@@ -58465,7 +58383,7 @@
         <v>8138835</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="77" t="s">
         <v>259</v>
       </c>
@@ -58497,7 +58415,7 @@
         <v>73305</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="69" t="s">
         <v>519</v>
       </c>
@@ -58529,7 +58447,7 @@
         <v>17458530</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="69" t="s">
         <v>520</v>
       </c>
@@ -58561,7 +58479,7 @@
         <v>6702025</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="77" t="s">
         <v>265</v>
       </c>
@@ -58593,7 +58511,7 @@
         <v>474250</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="69" t="s">
         <v>521</v>
       </c>
@@ -58625,7 +58543,7 @@
         <v>21007548</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="69" t="s">
         <v>522</v>
       </c>
@@ -58657,7 +58575,7 @@
         <v>1430607</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="69" t="s">
         <v>523</v>
       </c>
@@ -58689,7 +58607,7 @@
         <v>14128920</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="72" t="s">
         <v>524</v>
       </c>
@@ -58721,7 +58639,7 @@
         <v>181616925</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -58733,7 +58651,7 @@
       <c r="I43" s="75"/>
       <c r="J43" s="75"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="154" t="s">
         <v>525</v>
       </c>
@@ -58747,7 +58665,7 @@
       <c r="I44" s="76"/>
       <c r="J44" s="76"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="76"/>
       <c r="B45" s="76"/>
       <c r="C45" s="76"/>
@@ -58759,7 +58677,7 @@
       <c r="I45" s="76"/>
       <c r="J45" s="76"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="67" t="s">
         <v>526</v>
       </c>
@@ -58771,7 +58689,7 @@
         <v>45772188</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="67" t="s">
         <v>527</v>
       </c>
@@ -58798,28 +58716,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
         <v>254</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="50" t="s">
         <v>253</v>
       </c>
@@ -58827,7 +58745,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -58838,27 +58756,27 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="67" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="67" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>257</v>
       </c>
@@ -58866,7 +58784,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>259</v>
       </c>
@@ -58875,7 +58793,7 @@
         <v>610577</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>260</v>
       </c>
@@ -58885,7 +58803,7 @@
       </c>
       <c r="D11" s="56"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>261</v>
       </c>
@@ -58895,7 +58813,7 @@
       </c>
       <c r="D12" s="56"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>262</v>
       </c>
@@ -58905,7 +58823,7 @@
       </c>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>263</v>
       </c>
@@ -58915,7 +58833,7 @@
       </c>
       <c r="D14" s="56"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>264</v>
       </c>
@@ -58925,7 +58843,7 @@
       </c>
       <c r="D15" s="56"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>265</v>
       </c>
@@ -58935,7 +58853,7 @@
       </c>
       <c r="D16" s="56"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>266</v>
       </c>
@@ -58945,7 +58863,7 @@
       </c>
       <c r="D17" s="56"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>267</v>
       </c>
@@ -58954,7 +58872,7 @@
         <v>1210854977</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>268</v>
       </c>
@@ -58964,7 +58882,7 @@
       </c>
       <c r="D21" s="56"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="10" t="s">
         <v>269</v>
       </c>
@@ -58976,7 +58894,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C25" s="7">
         <f>C24/'Conversion Factors'!B61</f>
         <v>2.1598952009003561E-4</v>
@@ -58985,7 +58903,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C26" s="7">
         <f>C25/'Conversion Factors'!$C$12</f>
         <v>1.5716257188181699E-4</v>
@@ -58994,7 +58912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C27" s="7">
         <f>C26/'Conversion Factors'!$B$17</f>
         <v>2.8695010385579147E-6</v>
@@ -59010,19 +58928,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>245</v>
       </c>
@@ -59031,7 +58949,7 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -59048,7 +58966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>251</v>
       </c>
@@ -59065,12 +58983,12 @@
         <v>663.86</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="50" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>246</v>
       </c>
@@ -59082,7 +59000,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="7">
         <f>B5/'Conversion Factors'!B57</f>
@@ -59092,7 +59010,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="7">
         <f>B6/'Conversion Factors'!$C$12</f>
@@ -59102,7 +59020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="7">
         <f>B7/'Conversion Factors'!$B$17</f>
@@ -59112,37 +59030,37 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="67" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="67" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="67" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G17" s="67" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
     </row>
